--- a/classfiers/chatty/multinomialNB/smote/chatty-multinomialNB-smote-results.xlsx
+++ b/classfiers/chatty/multinomialNB/smote/chatty-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8174904942965779</v>
+        <v>0.8402061855670103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8650844883235238</v>
+        <v>0.8192005759940543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.864221916867056</v>
+        <v>0.8190712031111034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8650844883235238</v>
+        <v>0.8192005759940542</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.6882591093117408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8063888361496108</v>
+        <v>0.7255318654775176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.802729366769525</v>
+        <v>0.7228535945261974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8063888361496108</v>
+        <v>0.7255318654775176</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8262548262548263</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8669641161951775</v>
+        <v>0.7877647714604237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8665322407653696</v>
+        <v>0.786602468212416</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8669641161951775</v>
+        <v>0.7877647714604237</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9234042553191489</v>
+        <v>0.8401639344262295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9324378203911146</v>
+        <v>0.898585562987737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9324503311258279</v>
+        <v>0.8979842674532941</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9324378203911146</v>
+        <v>0.8985855629877371</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9541484716157205</v>
+        <v>0.8526570048309179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9541482530284178</v>
+        <v>0.8526148692419476</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9541484716157206</v>
+        <v>0.8526570048309178</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8521405598517718</v>
+        <v>0.7919501449264167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8850047465350295</v>
+        <v>0.8167479561501301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8840164217112392</v>
+        <v>0.8158252805089917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8850047465350295</v>
+        <v>0.8167479561501301</v>
       </c>
     </row>
   </sheetData>
